--- a/abortion.ca.gov/misc/i18n-Everything.xlsx
+++ b/abortion.ca.gov/misc/i18n-Everything.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://avantpage.sharepoint.com/sites/OperationsClientProjects/Shared Documents/CDPH - Gender Equity Unit/CDPH-GEU-20230203-1 (Q-CDPH-GEU-20230202-1)/05 delivery/pages/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonjensen/Projects/abortion.ca.gov/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{8B8205CE-1BE0-AD41-A899-B081D131464F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28616858-425A-4616-9B5A-1C278D0E2FFF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A048703-897B-4D40-8E1E-0F6484538DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="487">
   <si>
     <t>_key</t>
   </si>
@@ -1804,6 +1804,9 @@
   </si>
   <si>
     <t>Chính sách quyền riêng tư</t>
+  </si>
+  <si>
+    <t>Page alert message</t>
   </si>
 </sst>
 </file>
@@ -1950,10 +1953,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2279,24 +2278,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" style="6" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" customWidth="1"/>
-    <col min="8" max="8" width="25.7109375" style="6" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" customWidth="1"/>
+    <col min="8" max="8" width="25.6640625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75">
+    <row r="1" spans="1:9" ht="19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2325,7 +2324,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="45">
+    <row r="2" spans="1:9" ht="32">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -2354,7 +2353,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" ht="16">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -2383,7 +2382,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="30">
+    <row r="4" spans="1:9" ht="32">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -2412,7 +2411,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="195">
+    <row r="5" spans="1:9" ht="176">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -2441,7 +2440,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" ht="16">
       <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
@@ -2470,7 +2469,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="30">
+    <row r="7" spans="1:9" ht="32">
       <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
@@ -2499,7 +2498,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="30">
+    <row r="8" spans="1:9" ht="32">
       <c r="A8" s="2" t="s">
         <v>34</v>
       </c>
@@ -2528,7 +2527,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="30">
+    <row r="9" spans="1:9" ht="32">
       <c r="A9" s="2" t="s">
         <v>38</v>
       </c>
@@ -2557,7 +2556,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="30">
+    <row r="10" spans="1:9" ht="32">
       <c r="A10" s="2" t="s">
         <v>41</v>
       </c>
@@ -2586,7 +2585,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" ht="16">
       <c r="A11" s="2" t="s">
         <v>47</v>
       </c>
@@ -2615,7 +2614,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="45">
+    <row r="12" spans="1:9" ht="48">
       <c r="A12" s="2" t="s">
         <v>51</v>
       </c>
@@ -2644,7 +2643,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" ht="16">
       <c r="A13" s="2" t="s">
         <v>56</v>
       </c>
@@ -2673,7 +2672,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" ht="16">
       <c r="A14" s="2" t="s">
         <v>59</v>
       </c>
@@ -2702,7 +2701,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="30">
+    <row r="15" spans="1:9" ht="16">
       <c r="A15" s="2" t="s">
         <v>65</v>
       </c>
@@ -2731,7 +2730,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="30">
+    <row r="16" spans="1:9" ht="32">
       <c r="A16" s="2" t="s">
         <v>70</v>
       </c>
@@ -2760,7 +2759,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" ht="16">
       <c r="A17" s="2" t="s">
         <v>75</v>
       </c>
@@ -2789,7 +2788,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" ht="16">
       <c r="A18" s="2" t="s">
         <v>81</v>
       </c>
@@ -2818,7 +2817,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="45">
+    <row r="19" spans="1:9" ht="32">
       <c r="A19" s="2" t="s">
         <v>87</v>
       </c>
@@ -2847,7 +2846,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="30">
+    <row r="20" spans="1:9" ht="16">
       <c r="A20" s="2" t="s">
         <v>89</v>
       </c>
@@ -2876,7 +2875,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" ht="16">
       <c r="A21" s="2" t="s">
         <v>92</v>
       </c>
@@ -2905,7 +2904,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="60">
+    <row r="22" spans="1:9" ht="48">
       <c r="A22" s="2" t="s">
         <v>95</v>
       </c>
@@ -2934,7 +2933,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="45">
+    <row r="23" spans="1:9" ht="32">
       <c r="A23" s="2" t="s">
         <v>99</v>
       </c>
@@ -2963,7 +2962,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="30">
+    <row r="24" spans="1:9" ht="32">
       <c r="A24" s="2" t="s">
         <v>101</v>
       </c>
@@ -2992,7 +2991,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" ht="16">
       <c r="A25" s="2" t="s">
         <v>106</v>
       </c>
@@ -3021,7 +3020,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" ht="16">
       <c r="A26" s="2" t="s">
         <v>107</v>
       </c>
@@ -3050,7 +3049,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="30">
+    <row r="27" spans="1:9" ht="16">
       <c r="A27" s="2" t="s">
         <v>110</v>
       </c>
@@ -3079,7 +3078,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="90">
+    <row r="28" spans="1:9" ht="80">
       <c r="A28" s="2" t="s">
         <v>111</v>
       </c>
@@ -3108,7 +3107,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="30">
+    <row r="29" spans="1:9" ht="32">
       <c r="A29" s="2" t="s">
         <v>113</v>
       </c>
@@ -3137,7 +3136,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="30">
+    <row r="30" spans="1:9" ht="32">
       <c r="A30" s="2" t="s">
         <v>117</v>
       </c>
@@ -3166,7 +3165,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="30">
+    <row r="31" spans="1:9" ht="32">
       <c r="A31" s="2" t="s">
         <v>121</v>
       </c>
@@ -3195,7 +3194,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" ht="16">
       <c r="A32" s="2" t="s">
         <v>124</v>
       </c>
@@ -3224,7 +3223,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="30">
+    <row r="33" spans="1:9" ht="32">
       <c r="A33" s="2" t="s">
         <v>129</v>
       </c>
@@ -3253,7 +3252,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="165">
+    <row r="34" spans="1:9" ht="144">
       <c r="A34" s="2" t="s">
         <v>134</v>
       </c>
@@ -3282,7 +3281,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" ht="16">
       <c r="A35" s="2" t="s">
         <v>138</v>
       </c>
@@ -3311,7 +3310,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="30">
+    <row r="36" spans="1:9" ht="32">
       <c r="A36" s="2" t="s">
         <v>142</v>
       </c>
@@ -3340,7 +3339,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="60">
+    <row r="37" spans="1:9" ht="48">
       <c r="A37" s="2" t="s">
         <v>147</v>
       </c>
@@ -3369,7 +3368,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="30">
+    <row r="38" spans="1:9" ht="32">
       <c r="A38" s="2" t="s">
         <v>152</v>
       </c>
@@ -3398,7 +3397,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="30">
+    <row r="39" spans="1:9" ht="32">
       <c r="A39" s="2" t="s">
         <v>155</v>
       </c>
@@ -3427,7 +3426,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="30">
+    <row r="40" spans="1:9" ht="32">
       <c r="A40" s="2" t="s">
         <v>160</v>
       </c>
@@ -3456,7 +3455,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="30">
+    <row r="41" spans="1:9" ht="32">
       <c r="A41" s="2" t="s">
         <v>164</v>
       </c>
@@ -3485,7 +3484,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="60">
+    <row r="42" spans="1:9" ht="64">
       <c r="A42" s="2" t="s">
         <v>169</v>
       </c>
@@ -3514,7 +3513,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="30">
+    <row r="43" spans="1:9" ht="32">
       <c r="A43" s="2" t="s">
         <v>172</v>
       </c>
@@ -3543,7 +3542,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="30">
+    <row r="44" spans="1:9" ht="32">
       <c r="A44" s="2" t="s">
         <v>177</v>
       </c>
@@ -3572,7 +3571,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="30">
+    <row r="45" spans="1:9" ht="32">
       <c r="A45" s="2" t="s">
         <v>182</v>
       </c>
@@ -3601,7 +3600,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="30">
+    <row r="46" spans="1:9" ht="32">
       <c r="A46" s="2" t="s">
         <v>188</v>
       </c>
@@ -3630,7 +3629,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="30">
+    <row r="47" spans="1:9" ht="32">
       <c r="A47" s="2" t="s">
         <v>193</v>
       </c>
@@ -3659,7 +3658,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="30">
+    <row r="48" spans="1:9" ht="32">
       <c r="A48" s="2" t="s">
         <v>198</v>
       </c>
@@ -3688,7 +3687,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="30">
+    <row r="49" spans="1:9" ht="32">
       <c r="A49" s="2" t="s">
         <v>203</v>
       </c>
@@ -3717,7 +3716,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" ht="16">
       <c r="A50" s="2" t="s">
         <v>208</v>
       </c>
@@ -3746,7 +3745,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" ht="16">
       <c r="A51" s="2" t="s">
         <v>214</v>
       </c>
@@ -3775,7 +3774,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" ht="16">
       <c r="A52" s="2" t="s">
         <v>219</v>
       </c>
@@ -3804,7 +3803,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" ht="16">
       <c r="A53" s="2" t="s">
         <v>224</v>
       </c>
@@ -3833,7 +3832,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="30">
+    <row r="54" spans="1:9" ht="16">
       <c r="A54" s="2" t="s">
         <v>229</v>
       </c>
@@ -3862,7 +3861,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" ht="16">
       <c r="A55" s="2" t="s">
         <v>231</v>
       </c>
@@ -3891,7 +3890,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" ht="16">
       <c r="A56" s="2" t="s">
         <v>236</v>
       </c>
@@ -3920,7 +3919,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="30">
+    <row r="57" spans="1:9" ht="16">
       <c r="A57" s="2" t="s">
         <v>28</v>
       </c>
@@ -3949,7 +3948,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" ht="16">
       <c r="A58" s="2" t="s">
         <v>245</v>
       </c>
@@ -3978,7 +3977,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="30">
+    <row r="59" spans="1:9" ht="32">
       <c r="A59" s="2" t="s">
         <v>249</v>
       </c>
@@ -4007,7 +4006,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="30">
+    <row r="60" spans="1:9" ht="16">
       <c r="A60" s="2" t="s">
         <v>240</v>
       </c>
@@ -4036,7 +4035,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" ht="16">
       <c r="A61" s="2" t="s">
         <v>259</v>
       </c>
@@ -4065,7 +4064,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="30">
+    <row r="62" spans="1:9" ht="32">
       <c r="A62" s="2" t="s">
         <v>263</v>
       </c>
@@ -4094,7 +4093,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" ht="16">
       <c r="A63" s="2" t="s">
         <v>269</v>
       </c>
@@ -4123,7 +4122,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" ht="16">
       <c r="A64" s="2" t="s">
         <v>274</v>
       </c>
@@ -4152,7 +4151,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" ht="16">
       <c r="A65" s="2" t="s">
         <v>279</v>
       </c>
@@ -4181,7 +4180,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" ht="16">
       <c r="A66" s="2" t="s">
         <v>286</v>
       </c>
@@ -4210,7 +4209,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" ht="16">
       <c r="A67" s="2" t="s">
         <v>293</v>
       </c>
@@ -4239,7 +4238,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="30">
+    <row r="68" spans="1:9" ht="16">
       <c r="A68" s="2" t="s">
         <v>295</v>
       </c>
@@ -4268,7 +4267,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" ht="16">
       <c r="A69" s="2" t="s">
         <v>301</v>
       </c>
@@ -4297,7 +4296,13 @@
         <v>292</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" ht="16">
+      <c r="A70" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>486</v>
+      </c>
       <c r="C70" s="3"/>
       <c r="E70" s="3"/>
       <c r="G70" s="3"/>
@@ -4308,6 +4313,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005A51794B0584FB4E974A50A5DE251FC8" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d680b2aa203cd36155ac2d6f4b178a5e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ac9e27ac-d528-4243-89ed-f5d0ed57b253" xmlns:ns3="32b76e74-659d-4a76-820c-d6990d07b639" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="35a0c5d56694fb691e9be7f909d995d1" ns2:_="" ns3:_="">
     <xsd:import namespace="ac9e27ac-d528-4243-89ed-f5d0ed57b253"/>
@@ -4550,16 +4564,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03DD2006-DE3A-46A0-8911-F854BE585803}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E99E614-E3AE-48CB-B5E5-EE74AE0AF42B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4576,12 +4589,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03DD2006-DE3A-46A0-8911-F854BE585803}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>